--- a/Outputs/Bolivia/dataPoints.xlsx
+++ b/Outputs/Bolivia/dataPoints.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15277" uniqueCount="3335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15277" uniqueCount="3338">
   <si>
     <t>country</t>
   </si>
@@ -9984,13 +9984,22 @@
     <t>empty_value</t>
   </si>
   <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
     <t>17%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>34%</t>
   </si>
   <si>
     <t>avg</t>
@@ -63981,7 +63990,7 @@
         <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4537688442211055</v>
+        <v>0.4592901878914405</v>
       </c>
       <c r="E2" t="n">
         <v>1.15</v>
@@ -63990,7 +63999,7 @@
         <v>1.0</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="3">
@@ -64004,7 +64013,7 @@
         <v>3307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5462311557788945</v>
+        <v>0.5407098121085595</v>
       </c>
       <c r="E3" t="n">
         <v>1.15</v>
@@ -64027,7 +64036,7 @@
         <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4352409638554217</v>
+        <v>0.39323467230443976</v>
       </c>
       <c r="E4" t="n">
         <v>2.15</v>
@@ -64036,7 +64045,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -64050,7 +64059,7 @@
         <v>3307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5647590361445782</v>
+        <v>0.6067653276955602</v>
       </c>
       <c r="E5" t="n">
         <v>2.15</v>
@@ -64073,7 +64082,7 @@
         <v>158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3851963746223565</v>
+        <v>0.3784355179704017</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -64082,7 +64091,7 @@
         <v>1.0</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -64096,7 +64105,7 @@
         <v>3307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6148036253776434</v>
+        <v>0.6215644820295982</v>
       </c>
       <c r="E7" t="n">
         <v>3.15</v>
@@ -64119,7 +64128,7 @@
         <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17293997965412003</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="E8" t="n">
         <v>1.1</v>
@@ -64128,7 +64137,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>3308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9">
@@ -64142,7 +64151,7 @@
         <v>3307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82706002034588</v>
+        <v>0.8932806324110671</v>
       </c>
       <c r="E9" t="n">
         <v>1.1</v>
@@ -64165,7 +64174,7 @@
         <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.39607448414695523</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="E10" t="n">
         <v>2.15</v>
@@ -64174,7 +64183,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -64188,7 +64197,7 @@
         <v>3307</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6039255158530448</v>
+        <v>0.6415094339622642</v>
       </c>
       <c r="E11" t="n">
         <v>2.15</v>
@@ -64211,7 +64220,7 @@
         <v>158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24681285058643548</v>
+        <v>0.19207920792079208</v>
       </c>
       <c r="E12" t="n">
         <v>3.15</v>
@@ -64220,7 +64229,7 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -64234,7 +64243,7 @@
         <v>3307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7531871494135645</v>
+        <v>0.807920792079208</v>
       </c>
       <c r="E13" t="n">
         <v>3.15</v>
@@ -64257,7 +64266,7 @@
         <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23783241344706474</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="E14" t="n">
         <v>4.15</v>
@@ -64266,7 +64275,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -64280,7 +64289,7 @@
         <v>3307</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7621675865529353</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="E15" t="n">
         <v>4.15</v>
@@ -64303,7 +64312,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24646464646464647</v>
+        <v>0.1796875</v>
       </c>
       <c r="E16" t="n">
         <v>1.15</v>
@@ -64312,7 +64321,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="17">
@@ -64326,7 +64335,7 @@
         <v>3307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7535353535353535</v>
+        <v>0.8203125</v>
       </c>
       <c r="E17" t="n">
         <v>1.15</v>
@@ -64349,7 +64358,7 @@
         <v>158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3967446592065107</v>
+        <v>0.32270916334661354</v>
       </c>
       <c r="E18" t="n">
         <v>2.15</v>
@@ -64358,7 +64367,7 @@
         <v>1.0</v>
       </c>
       <c r="G18" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
@@ -64372,7 +64381,7 @@
         <v>3307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6032553407934893</v>
+        <v>0.6772908366533865</v>
       </c>
       <c r="E19" t="n">
         <v>2.15</v>
@@ -64395,7 +64404,7 @@
         <v>158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.26431492842535786</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
         <v>3.15</v>
@@ -64404,7 +64413,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -64418,7 +64427,7 @@
         <v>3307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7356850715746421</v>
+        <v>0.8</v>
       </c>
       <c r="E21" t="n">
         <v>3.15</v>
@@ -64441,7 +64450,7 @@
         <v>158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.532565130260521</v>
+        <v>0.49064449064449067</v>
       </c>
       <c r="E22" t="n">
         <v>4.15</v>
@@ -64450,7 +64459,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="23">
@@ -64464,7 +64473,7 @@
         <v>3307</v>
       </c>
       <c r="D23" t="n">
-        <v>0.467434869739479</v>
+        <v>0.5093555093555093</v>
       </c>
       <c r="E23" t="n">
         <v>4.15</v>
@@ -64487,7 +64496,7 @@
         <v>158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3918640576725026</v>
+        <v>0.4851586489252815</v>
       </c>
       <c r="E24" t="n">
         <v>1.15</v>
@@ -64496,7 +64505,7 @@
         <v>1.0</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="25">
@@ -64510,7 +64519,7 @@
         <v>3307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6081359423274975</v>
+        <v>0.5148413510747185</v>
       </c>
       <c r="E25" t="n">
         <v>1.15</v>
@@ -64533,7 +64542,7 @@
         <v>158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.521805661820964</v>
+        <v>0.4825102880658436</v>
       </c>
       <c r="E26" t="n">
         <v>2.15</v>
@@ -64542,7 +64551,7 @@
         <v>1.0</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -64556,7 +64565,7 @@
         <v>3307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478194338179036</v>
+        <v>0.5174897119341564</v>
       </c>
       <c r="E27" t="n">
         <v>2.15</v>
@@ -64579,7 +64588,7 @@
         <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4097898513582778</v>
+        <v>0.44387755102040816</v>
       </c>
       <c r="E28" t="n">
         <v>3.15</v>
@@ -64588,7 +64597,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
@@ -64602,7 +64611,7 @@
         <v>3307</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5902101486417222</v>
+        <v>0.5561224489795918</v>
       </c>
       <c r="E29" t="n">
         <v>3.15</v>
@@ -64625,7 +64634,7 @@
         <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.595134443021767</v>
+        <v>0.6244855967078189</v>
       </c>
       <c r="E30" t="n">
         <v>4.15</v>
@@ -64634,7 +64643,7 @@
         <v>1.0</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="31">
@@ -64648,7 +64657,7 @@
         <v>3307</v>
       </c>
       <c r="D31" t="n">
-        <v>0.404865556978233</v>
+        <v>0.3755144032921811</v>
       </c>
       <c r="E31" t="n">
         <v>4.15</v>
@@ -64671,7 +64680,7 @@
         <v>158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5161125319693095</v>
+        <v>0.582909460834181</v>
       </c>
       <c r="E32" t="n">
         <v>5.15</v>
@@ -64680,7 +64689,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
@@ -64694,7 +64703,7 @@
         <v>3307</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4838874680306905</v>
+        <v>0.41709053916581895</v>
       </c>
       <c r="E33" t="n">
         <v>5.15</v>
@@ -64717,7 +64726,7 @@
         <v>158</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34220436856640724</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="E34" t="n">
         <v>1.15</v>
@@ -64726,7 +64735,7 @@
         <v>1.0</v>
       </c>
       <c r="G34" t="s">
-        <v>3310</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -64740,7 +64749,7 @@
         <v>3307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6577956314335928</v>
+        <v>0.6814516129032258</v>
       </c>
       <c r="E35" t="n">
         <v>1.15</v>
@@ -64763,7 +64772,7 @@
         <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4035897435897436</v>
+        <v>0.40425531914893614</v>
       </c>
       <c r="E36" t="n">
         <v>2.15</v>
@@ -64786,7 +64795,7 @@
         <v>3307</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5964102564102565</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="E37" t="n">
         <v>2.15</v>
@@ -64809,7 +64818,7 @@
         <v>158</v>
       </c>
       <c r="D38" t="n">
-        <v>0.45426195426195426</v>
+        <v>0.3793859649122807</v>
       </c>
       <c r="E38" t="n">
         <v>3.15</v>
@@ -64818,7 +64827,7 @@
         <v>1.0</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39">
@@ -64832,7 +64841,7 @@
         <v>3307</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5457380457380457</v>
+        <v>0.6206140350877193</v>
       </c>
       <c r="E39" t="n">
         <v>3.15</v>
@@ -64855,7 +64864,7 @@
         <v>158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26267748478701824</v>
+        <v>0.22105263157894736</v>
       </c>
       <c r="E40" t="n">
         <v>4.15</v>
@@ -64864,7 +64873,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="41">
@@ -64878,7 +64887,7 @@
         <v>3307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7373225152129818</v>
+        <v>0.7789473684210526</v>
       </c>
       <c r="E41" t="n">
         <v>4.15</v>
@@ -64901,7 +64910,7 @@
         <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2710257050162216</v>
+        <v>0.21464393179538616</v>
       </c>
       <c r="E42" t="n">
         <v>1.15</v>
@@ -64910,7 +64919,7 @@
         <v>1.0</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43">
@@ -64924,7 +64933,7 @@
         <v>3307</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7289742949837784</v>
+        <v>0.7853560682046139</v>
       </c>
       <c r="E43" t="n">
         <v>1.15</v>
@@ -64947,7 +64956,7 @@
         <v>158</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4145176695319962</v>
+        <v>0.42073170731707316</v>
       </c>
       <c r="E44" t="n">
         <v>2.15</v>
@@ -64956,7 +64965,7 @@
         <v>1.0</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45">
@@ -64970,7 +64979,7 @@
         <v>3307</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5854823304680038</v>
+        <v>0.5792682926829269</v>
       </c>
       <c r="E45" t="n">
         <v>2.15</v>
@@ -64993,7 +65002,7 @@
         <v>158</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2998236331569665</v>
+        <v>0.3501006036217304</v>
       </c>
       <c r="E46" t="n">
         <v>3.15</v>
@@ -65002,7 +65011,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="47">
@@ -65016,7 +65025,7 @@
         <v>3307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7001763668430335</v>
+        <v>0.6498993963782695</v>
       </c>
       <c r="E47" t="n">
         <v>3.15</v>
@@ -65039,7 +65048,7 @@
         <v>158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4062186559679037</v>
+        <v>0.3974630021141649</v>
       </c>
       <c r="E48" t="n">
         <v>4.15</v>
@@ -65048,7 +65057,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
@@ -65062,7 +65071,7 @@
         <v>3307</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5937813440320963</v>
+        <v>0.602536997885835</v>
       </c>
       <c r="E49" t="n">
         <v>4.15</v>
@@ -65085,7 +65094,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25114854517611024</v>
+        <v>0.16798418972332016</v>
       </c>
       <c r="E50" t="n">
         <v>1.15</v>
@@ -65094,7 +65103,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="51">
@@ -65108,7 +65117,7 @@
         <v>3307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7488514548238898</v>
+        <v>0.8320158102766798</v>
       </c>
       <c r="E51" t="n">
         <v>1.15</v>
@@ -65131,7 +65140,7 @@
         <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.31310555838857723</v>
+        <v>0.2845849802371542</v>
       </c>
       <c r="E52" t="n">
         <v>2.15</v>
@@ -65140,7 +65149,7 @@
         <v>1.0</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
@@ -65154,7 +65163,7 @@
         <v>3307</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6868944416114228</v>
+        <v>0.7154150197628458</v>
       </c>
       <c r="E53" t="n">
         <v>2.15</v>
@@ -65177,7 +65186,7 @@
         <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3181118522319138</v>
+        <v>0.2694610778443114</v>
       </c>
       <c r="E54" t="n">
         <v>3.15</v>
@@ -65186,7 +65195,7 @@
         <v>1.0</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -65200,7 +65209,7 @@
         <v>3307</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6818881477680863</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="E55" t="n">
         <v>3.15</v>
@@ -65223,7 +65232,7 @@
         <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24693877551020407</v>
+        <v>0.19483101391650098</v>
       </c>
       <c r="E56" t="n">
         <v>4.15</v>
@@ -65232,7 +65241,7 @@
         <v>1.0</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57">
@@ -65246,7 +65255,7 @@
         <v>3307</v>
       </c>
       <c r="D57" t="n">
-        <v>0.753061224489796</v>
+        <v>0.805168986083499</v>
       </c>
       <c r="E57" t="n">
         <v>4.15</v>
@@ -65277,10 +65286,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="D1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="E1" t="s">
         <v>304</v>
@@ -65294,7 +65303,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="C2" t="n">
         <v>0.1596806387225549</v>
@@ -65306,7 +65315,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="3">
@@ -65314,7 +65323,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="C3" t="n">
         <v>0.16135458167330677</v>
@@ -65326,7 +65335,7 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="4">
@@ -65334,7 +65343,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="C4" t="n">
         <v>0.21008403361344538</v>
@@ -65346,7 +65355,7 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="5">
@@ -65354,7 +65363,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="C5" t="n">
         <v>0.23931623931623933</v>
@@ -65366,7 +65375,7 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="6">
@@ -65374,7 +65383,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="C6" t="n">
         <v>0.1900647948164147</v>
@@ -65386,7 +65395,7 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="7">
@@ -65394,7 +65403,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="C7" t="n">
         <v>0.13983050847457626</v>
@@ -65406,7 +65415,7 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="8">
@@ -65414,7 +65423,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="C8" t="n">
         <v>0.1906779661016949</v>
@@ -65426,7 +65435,7 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="9">
@@ -65434,7 +65443,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="C9" t="n">
         <v>0.2320675105485232</v>
@@ -65446,7 +65455,7 @@
         <v>8.0</v>
       </c>
       <c r="F9" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="10">
@@ -65454,7 +65463,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="C10" t="n">
         <v>0.403960396039604</v>
@@ -65466,7 +65475,7 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="11">
@@ -65474,7 +65483,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="C11" t="n">
         <v>0.1067193675889328</v>
@@ -65486,7 +65495,7 @@
         <v>10.0</v>
       </c>
       <c r="F11" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="12">
@@ -65494,7 +65503,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="C12" t="n">
         <v>0.1593625498007968</v>
@@ -65506,7 +65515,7 @@
         <v>11.0</v>
       </c>
       <c r="F12" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
     </row>
   </sheetData>
@@ -71724,4 +71733,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7233B7C1-03E4-49FB-98E2-FA09E8DEB6AD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8381A25-602F-4A24-A45A-7E102B4DA75E}"/>
 </file>